--- a/5_results/5_3_mix/feature_importance_set_4.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_4.xlsx
@@ -472,472 +472,472 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04158440195985443</v>
+        <v>0.05960756908445693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003393694127706248</v>
+        <v>0.007995862146496018</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275982901944052e-06</v>
+        <v>3.793922035452476e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04857206507463916</v>
+        <v>0.07607115975865157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03459673884506969</v>
+        <v>0.04314397841026228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006355514070498414</v>
+        <v>0.0009856628036720271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009769548558074331</v>
+        <v>0.0001381458852619146</v>
       </c>
       <c r="D3" t="n">
-        <v>6.494059313554633e-05</v>
+        <v>4.511589867944175e-05</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008367077621556996</v>
+        <v>0.001270107090805355</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004343950519439832</v>
+        <v>0.0007012185165386992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005599000276605958</v>
+        <v>0.0008129608181168368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001017541886051194</v>
+        <v>0.0001540143637412236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001253318003696924</v>
+        <v>0.0001474502325336532</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007694133083908816</v>
+        <v>0.001130078521764743</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035038674693031</v>
+        <v>0.0004958431144689311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003841505838235149</v>
+        <v>0.0007718717546582488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004410860576823082</v>
+        <v>0.0003204295832401643</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049616645419445e-05</v>
+        <v>0.002872045858441578</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004749708127460214</v>
+        <v>0.001431640695357241</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002933303549010083</v>
+        <v>0.0001121028139592569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002411080292199119</v>
+        <v>0.0004746387060868385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005497262929255365</v>
+        <v>0.0004652862339151727</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003029722053891855</v>
+        <v>0.04234589559649566</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003542974327357616</v>
+        <v>0.001432669492657353</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001279186257040623</v>
+        <v>-0.0004833920804836762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002040096447742168</v>
+        <v>0.0002316744868182008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007127919645029976</v>
+        <v>9.946358515408768e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001530566314386473</v>
+        <v>0.003239499744210022</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003507744954485752</v>
+        <v>0.0004364713833833082</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005724479409985838</v>
+        <v>2.687759025309336e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0015382365648692</v>
+        <v>0.0001774552718462052</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002583391655439511</v>
+        <v>0.0001250610508216677</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19795089689453e-05</v>
+        <v>0.0168824743564553</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002070160477350916</v>
+        <v>0.0004349577040154335</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001006312652387483</v>
+        <v>-8.004716032302306e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007270523388692273</v>
+        <v>2.546799752998208e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001407994820809989</v>
+        <v>5.126782809205434e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001606616729593596</v>
+        <v>0.1644624544878898</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001016960418529656</v>
+        <v>0.0001310291641682094</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004371442592087992</v>
+        <v>-8.009316910824522e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006911130857312653</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002988730488532078</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003324438938344789</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001306496824184546</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7.572934727798466e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000689244656025978</v>
+        <v>-2.220446049250313e-17</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003749185516183605</v>
+        <v>4.965068306494546e-17</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007361541192321254</v>
+        <v>0.8130495168499705</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001461207135733253</v>
+        <v>8.002698218358744e-17</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.271782368129738e-05</v>
+        <v>-1.244359031685937e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006432309375584034</v>
+        <v>-2.220446049250313e-17</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001352088690467999</v>
+        <v>4.965068306494547e-17</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002210914943133378</v>
+        <v>0.8130495168499705</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009216278677109319</v>
+        <v>8.002698218358746e-17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003648340074058748</v>
+        <v>-1.244359031685937e-16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006349608739541601</v>
+        <v>-4.440892098500626e-17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000151131177144188</v>
+        <v>9.930136612989092e-17</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003576817897864343</v>
+        <v>0.8130495168499705</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009461420565488959</v>
+        <v>1.600539643671749e-16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003237796913594244</v>
+        <v>-2.488718063371874e-16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006156660933721136</v>
+        <v>-4.440892098500626e-17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001361221569887476</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002689837702314769</v>
+        <v>0.9110960958218894</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008959434960200934</v>
+        <v>8.079851412749889e-17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003353886907241338</v>
+        <v>-1.696163560975114e-16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006100681075882575</v>
+        <v>-4.440892098500626e-17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002051687802818091</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001328320480793325</v>
+        <v>0.9110960958218894</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001032513461922402</v>
+        <v>8.079851412749889e-17</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001876227532541131</v>
+        <v>-1.696163560975114e-16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000442086253870122</v>
+        <v>-6.661338147750939e-17</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805510033411741e-05</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D16" t="n">
-        <v>3.488142233932471e-05</v>
+        <v>0.96475800154489</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005616225078648289</v>
+        <v>5.859405363499577e-17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003225499998754152</v>
+        <v>-1.918208165900146e-16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003082613827708469</v>
+        <v>-6.661338147750939e-17</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000121526066431917</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002383135157952939</v>
+        <v>0.96475800154489</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000558485233222902</v>
+        <v>5.859405363499577e-17</v>
       </c>
       <c r="G17" t="n">
-        <v>5.80375323187919e-05</v>
+        <v>-1.918208165900146e-16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001597350345090787</v>
+        <v>-6.661338147750939e-17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001155781000197108</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01828070102036488</v>
+        <v>0.96475800154489</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003977119399087688</v>
+        <v>5.859405363499577e-17</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.824187089061144e-05</v>
+        <v>-1.918208165900146e-16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000146982894440284</v>
+        <v>-8.881784197001253e-17</v>
       </c>
       <c r="C19" t="n">
-        <v>7.922796989356868e-05</v>
+        <v>4.965068306494546e-17</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007139809830238195</v>
+        <v>0.9919349550499538</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003101143794980574</v>
+        <v>1.341360070607804e-17</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.614859061748941e-05</v>
+        <v>-1.910492846461031e-16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.646125103264236e-05</v>
+        <v>-8.881784197001253e-17</v>
       </c>
       <c r="C20" t="n">
-        <v>5.607943677474992e-05</v>
+        <v>4.965068306494546e-17</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009180858145635736</v>
+        <v>0.9919349550499538</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002119295864520392</v>
+        <v>1.341360070607804e-17</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.900708438675453e-05</v>
+        <v>-1.910492846461031e-16</v>
       </c>
     </row>
   </sheetData>

--- a/5_results/5_3_mix/feature_importance_set_4.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_4.xlsx
@@ -468,76 +468,76 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-color-PD</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05960756908445693</v>
+        <v>0.04030966106445737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007995862146496018</v>
+        <v>0.004721798314051046</v>
       </c>
       <c r="D2" t="n">
-        <v>3.793922035452476e-05</v>
+        <v>2.218556099425865e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07607115975865157</v>
+        <v>0.05003190905527664</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04314397841026228</v>
+        <v>0.03058741307363809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009856628036720271</v>
+        <v>0.03993943553386601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001381458852619146</v>
+        <v>0.005328790376901089</v>
       </c>
       <c r="D3" t="n">
-        <v>4.511589867944175e-05</v>
+        <v>3.714067086874023e-05</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001270107090805355</v>
+        <v>0.05091148857161539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0007012185165386992</v>
+        <v>0.02896738249611663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0008129608181168368</v>
+        <v>0.02622911069709073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001540143637412236</v>
+        <v>0.003643863017495034</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001474502325336532</v>
+        <v>4.357136570551605e-05</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001130078521764743</v>
+        <v>0.03373187501365209</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004958431144689311</v>
+        <v>0.01872634638052937</v>
       </c>
     </row>
     <row r="5">
@@ -547,272 +547,272 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007718717546582488</v>
+        <v>0.02325386590960552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003204295832401643</v>
+        <v>0.001826673074647304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002872045858441578</v>
+        <v>4.531887798350406e-06</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001431640695357241</v>
+        <v>0.02701501101760927</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001121028139592569</v>
+        <v>0.01949272080160178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0004746387060868385</v>
+        <v>0.02150677235404912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004652862339151727</v>
+        <v>0.002139067326224336</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04234589559649566</v>
+        <v>1.158968082406369e-05</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001432669492657353</v>
+        <v>0.02591114154379738</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0004833920804836762</v>
+        <v>0.01710240316430086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0002316744868182008</v>
+        <v>0.01962793756683085</v>
       </c>
       <c r="C7" t="n">
-        <v>9.946358515408768e-05</v>
+        <v>0.002948551289844328</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003239499744210022</v>
+        <v>5.931459751246752e-05</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004364713833833082</v>
+        <v>0.02569904542593004</v>
       </c>
       <c r="G7" t="n">
-        <v>2.687759025309336e-05</v>
+        <v>0.01355682970773167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-Stroop-color-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0001774552718462052</v>
+        <v>0.0193008414946046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001250610508216677</v>
+        <v>0.003209612703001768</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0168824743564553</v>
+        <v>8.847916322277384e-05</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004349577040154335</v>
+        <v>0.02590947841164714</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.004716032302306e-05</v>
+        <v>0.01269220457756206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.546799752998208e-05</v>
+        <v>0.01745455470283695</v>
       </c>
       <c r="C9" t="n">
-        <v>5.126782809205434e-05</v>
+        <v>0.003382911967755662</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1644624544878898</v>
+        <v>0.0001611627743559678</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001310291641682094</v>
+        <v>0.02442001720125814</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.009316910824522e-05</v>
+        <v>0.01048909220441576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.0119546708665407</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.001940864327749896</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>8.051942155000548e-05</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.01595093734297352</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.007958404390107872</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.220446049250313e-17</v>
+        <v>0.01080575957017955</v>
       </c>
       <c r="C11" t="n">
-        <v>4.965068306494546e-17</v>
+        <v>0.001928751751759451</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8130495168499705</v>
+        <v>0.0001167987869049457</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>8.002698218358744e-17</v>
+        <v>0.01477708608523446</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.244359031685937e-16</v>
+        <v>0.006834433055124644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.220446049250313e-17</v>
+        <v>0.009982815354555785</v>
       </c>
       <c r="C12" t="n">
-        <v>4.965068306494547e-17</v>
+        <v>0.001459495250033918</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8130495168499705</v>
+        <v>5.329702063582701e-05</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>8.002698218358746e-17</v>
+        <v>0.01298793624674371</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.244359031685937e-16</v>
+        <v>0.006977694462367857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.440892098500626e-17</v>
+        <v>0.009757900373922813</v>
       </c>
       <c r="C13" t="n">
-        <v>9.930136612989092e-17</v>
+        <v>0.001828349624829898</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8130495168499705</v>
+        <v>0.000141231571100856</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>1.600539643671749e-16</v>
+        <v>0.0135224975219249</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.488718063371874e-16</v>
+        <v>0.005993303225920723</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.440892098500626e-17</v>
+        <v>0.009744125345300359</v>
       </c>
       <c r="C14" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0005472106913076032</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9110960958218894</v>
+        <v>1.188513464233477e-06</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>8.079851412749889e-17</v>
+        <v>0.01087083972195822</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.696163560975114e-16</v>
+        <v>0.008617410968642497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.440892098500626e-17</v>
+        <v>0.009062963168828464</v>
       </c>
       <c r="C15" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0007096042801716917</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9110960958218894</v>
+        <v>4.473255613182562e-06</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>8.079851412749889e-17</v>
+        <v>0.01052404818947541</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.696163560975114e-16</v>
+        <v>0.007601878148181518</v>
       </c>
     </row>
     <row r="16">
@@ -822,122 +822,122 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6.661338147750939e-17</v>
+        <v>0.006994902838037742</v>
       </c>
       <c r="C16" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.001279223863819672</v>
       </c>
       <c r="D16" t="n">
-        <v>0.96475800154489</v>
+        <v>0.0001284452850020094</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>5.859405363499577e-17</v>
+        <v>0.009628842454395194</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.918208165900146e-16</v>
+        <v>0.004360963221680291</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.661338147750939e-17</v>
+        <v>0.006943472689184871</v>
       </c>
       <c r="C17" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.001218094252435586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.96475800154489</v>
+        <v>0.0001091399723477331</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>5.859405363499577e-17</v>
+        <v>0.009451545590801471</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.918208165900146e-16</v>
+        <v>0.004435399787568271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.661338147750939e-17</v>
+        <v>0.006470042520421227</v>
       </c>
       <c r="C18" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.001800024487817535</v>
       </c>
       <c r="D18" t="n">
-        <v>0.96475800154489</v>
+        <v>0.0006503172873604939</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>5.859405363499577e-17</v>
+        <v>0.01017631781981986</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.918208165900146e-16</v>
+        <v>0.00276376722102259</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-8.881784197001253e-17</v>
+        <v>0.00503710828431334</v>
       </c>
       <c r="C19" t="n">
-        <v>4.965068306494546e-17</v>
+        <v>0.0008297535028236994</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9919349550499538</v>
+        <v>8.525122971838253e-05</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>1.341360070607804e-17</v>
+        <v>0.006745582215039504</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.910492846461031e-16</v>
+        <v>0.003328634353587176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.881784197001253e-17</v>
+        <v>0.003083192291677994</v>
       </c>
       <c r="C20" t="n">
-        <v>4.965068306494546e-17</v>
+        <v>0.001234290404528483</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9919349550499538</v>
+        <v>0.002519479110382086</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>1.341360070607804e-17</v>
+        <v>0.005624613294308482</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.910492846461031e-16</v>
+        <v>0.0005417712890475063</v>
       </c>
     </row>
   </sheetData>
